--- a/Dados brutos/clusters_18medoids.xlsx
+++ b/Dados brutos/clusters_18medoids.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guilistocco/Documents/TCC 2 - Ônibus/BancoDados/Dados brutos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8889AE0-484F-F242-905B-7AC812F3520A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49521EF8-66EC-3A4F-9A5A-30DCFB6D5B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15960" xr2:uid="{678587FB-0DC5-A546-B58D-62F6D15205AB}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15960" activeTab="1" xr2:uid="{678587FB-0DC5-A546-B58D-62F6D15205AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$B$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha2!$A$1:$F$19</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,12 +41,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>medoids</t>
   </si>
   <si>
     <t>clusters</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -396,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5D7A92-B4F0-F348-9CC4-993625ADA1BD}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,63 +466,63 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>6</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -510,193 +530,185 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="B37">
         <v>33</v>
       </c>
     </row>
@@ -708,4 +720,257 @@
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D34E061-2185-A04A-8E80-11F47EF8899F}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f>A3</f>
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f>A4</f>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <f>A5</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <f>A6</f>
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <f>A7</f>
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <f>A8</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <f>A9</f>
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <f>A10</f>
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <f>A11</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <f>A12</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <f>A13</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <f>A14</f>
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <f>A15</f>
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <f>A16</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <f>A17</f>
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <f>A18</f>
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <f>A19</f>
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F19" xr:uid="{1D34E061-2185-A04A-8E80-11F47EF8899F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F19">
+      <sortCondition ref="A1:A19"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>